--- a/Scheduled Meetings.xlsx
+++ b/Scheduled Meetings.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Ronan: </t>
   </si>
   <si>
-    <t>Project brainstorming, SWOT diagram</t>
+    <t>Project brainstorming, SWOT diagram, creating a Gantt Chart</t>
   </si>
   <si>
     <t xml:space="preserve">All: </t>
